--- a/data_out/Original_Areas_Crops.xlsx
+++ b/data_out/Original_Areas_Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/paulukonis_elizabeth_epa_gov/Documents/Profile/Documents/GitHub/probabilistic_crop_McCaffrey/data_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{05282096-E045-4406-B37A-E2886A0F60A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5813384-A8CE-4EB5-99E8-87F794D53A6F}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{05282096-E045-4406-B37A-E2886A0F60A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFD08C9E-4AC0-4464-B2EB-72BAF6DB9F74}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E3CB831F-CCE0-4A7F-B7F2-731A4BFC8ED7}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +172,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,16 +207,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +541,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,32 +555,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -846,50 +866,50 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>154539.1</v>
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="1">
-        <v>270396.79999999999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>124982.8</v>
+        <v>4.7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="1">
-        <v>197224.3</v>
+        <v>3571.1</v>
       </c>
       <c r="F17" s="1">
-        <v>232515</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4.7</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2383.1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="1">
-        <v>3571.1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3.5</v>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2383.1</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
@@ -897,8 +917,8 @@
       <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
+      <c r="E19" s="1">
+        <v>341.6</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
@@ -906,7 +926,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
@@ -918,7 +938,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="1">
-        <v>341.6</v>
+        <v>37.1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
@@ -926,87 +946,87 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
+      <c r="C21" s="1">
+        <v>246.5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="1">
-        <v>37.1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1">
+        <v>117.4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>17282.2</v>
       </c>
       <c r="C22" s="1">
-        <v>246.5</v>
+        <v>4185.7</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
+      <c r="E22" s="1">
+        <v>1005.5</v>
       </c>
       <c r="F22" s="1">
-        <v>117.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
-        <v>17282.2</v>
+        <v>361.9</v>
       </c>
       <c r="C23" s="1">
-        <v>4185.7</v>
+        <v>0.1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="1">
-        <v>1005.5</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10.8</v>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1">
-        <v>361.9</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.1</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>33</v>
+      <c r="F24" s="1">
+        <v>883.1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
@@ -1014,19 +1034,19 @@
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
+      <c r="D25" s="1">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
+        <v>10.9</v>
       </c>
       <c r="F25" s="1">
-        <v>883.1</v>
+        <v>719.3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>33</v>
@@ -1034,134 +1054,134 @@
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1">
-        <v>10.9</v>
-      </c>
-      <c r="F26" s="1">
-        <v>719.3</v>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>33</v>
+      <c r="C27" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D27" s="1">
+        <v>33.299999999999997</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>33</v>
+      <c r="F27" s="1">
+        <v>172.6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D28" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="1">
-        <v>172.6</v>
+        <v>3650.5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1">
+        <v>450.1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2648</v>
       </c>
       <c r="C29" s="1">
-        <v>3650.5</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>24653.7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1080.2</v>
       </c>
       <c r="E29" s="1">
-        <v>450.1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>33</v>
+        <v>4028.6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>14081.9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1">
-        <v>2648</v>
+        <v>4379.8</v>
       </c>
       <c r="C30" s="1">
-        <v>24653.7</v>
+        <v>2597.1</v>
       </c>
       <c r="D30" s="1">
-        <v>1080.2</v>
+        <v>253.8</v>
       </c>
       <c r="E30" s="1">
-        <v>4028.6</v>
+        <v>23453.4</v>
       </c>
       <c r="F30" s="1">
-        <v>14081.9</v>
+        <v>60615</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1">
-        <v>4379.8</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2597.1</v>
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="1">
-        <v>253.8</v>
+        <v>95.3</v>
       </c>
       <c r="E31" s="1">
-        <v>23453.4</v>
+        <v>220.1</v>
       </c>
       <c r="F31" s="1">
-        <v>60615</v>
+        <v>1190.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1">
-        <v>95.3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>220.1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1190.5</v>
+      <c r="A32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4">
+        <v>154539.1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>270396.79999999999</v>
+      </c>
+      <c r="D32" s="4">
+        <v>124982.8</v>
+      </c>
+      <c r="E32" s="4">
+        <v>197224.3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>232515</v>
       </c>
     </row>
   </sheetData>

--- a/data_out/Original_Areas_Crops.xlsx
+++ b/data_out/Original_Areas_Crops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/paulukonis_elizabeth_epa_gov/Documents/Profile/Documents/GitHub/probabilistic_crop_McCaffrey/data_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{05282096-E045-4406-B37A-E2886A0F60A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFD08C9E-4AC0-4464-B2EB-72BAF6DB9F74}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{05282096-E045-4406-B37A-E2886A0F60A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B7B720D-0BA1-456F-BB9B-A6B5E89F53A2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E3CB831F-CCE0-4A7F-B7F2-731A4BFC8ED7}"/>
   </bookViews>
@@ -212,16 +212,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757D2B07-7936-4A6E-8B2D-F99A6B86A1AB}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,32 +555,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1165,22 +1165,22 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>154539.1</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>270396.79999999999</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>124982.8</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>197224.3</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>232515</v>
       </c>
     </row>
